--- a/FEMM Simulations/Data/DimensionSweep 2019_11_01 09_21 (Width Sweep)/R0.1 swWidth.xlsx
+++ b/FEMM Simulations/Data/DimensionSweep 2019_11_01 09_21 (Width Sweep)/R0.1 swWidth.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekultho\Documents\Personal\CG 490\FEMM Simulations\Data\DimensionSweep 2019_11_01 09_21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Kulin\Documents\Projects\CG-490\FEMM Simulations\Data\DimensionSweep 2019_11_01 09_21 (Width Sweep)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE99C5C-AB73-4B19-863F-AFCB23C01CF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF24F490-9EDE-4A10-ADD0-2892BBD289AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Force vs. Position" sheetId="1" r:id="rId1"/>
     <sheet name="Coil vs. Inductance" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Position [cm]</t>
   </si>
@@ -121,12 +118,6 @@
     <t>mass [kg]</t>
   </si>
   <si>
-    <t>Velocity [m/s]</t>
-  </si>
-  <si>
-    <t>Energy [J]</t>
-  </si>
-  <si>
     <t>3 mm Work [J]</t>
   </si>
   <si>
@@ -171,6 +162,18 @@
   <si>
     <t>radius</t>
   </si>
+  <si>
+    <t>R0.1 Velocity [m/s]</t>
+  </si>
+  <si>
+    <t>R0.1 Energy [J]</t>
+  </si>
+  <si>
+    <t>L40 Velocity [m/s]</t>
+  </si>
+  <si>
+    <t>L40 Energy [J]</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -221,6 +224,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3529,7 +3534,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Velocity [m/s]</c:v>
+                  <c:v>R0.1 Velocity [m/s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3636,6 +3641,98 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Force vs. Position'!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L40 Velocity [m/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Force vs. Position'!$A$59:$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2 mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 mm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 mm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 mm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6 mm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7 mm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8 mm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9 mm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10 mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Force vs. Position'!$D$59:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18.27649034911887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.299247030152319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.239520587721854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.411147481984226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.987120306753289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.732507285191129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.457294320270323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8752617000098226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8618031330527405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E9A-4F29-82C7-831DF24CC122}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3659,7 +3756,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy [J]</c:v>
+                  <c:v>R0.1 Energy [J]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3763,6 +3860,98 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D6A9-440F-B834-EDA2817F6198}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Force vs. Position'!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L40 Energy [J]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Force vs. Position'!$A$59:$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2 mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 mm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 mm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 mm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6 mm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7 mm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8 mm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9 mm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10 mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Force vs. Position'!$E$59:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.67496538953707597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3606073725058698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8771479448465018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6228475219315301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0673556770712671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4073257460933211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5355301609176126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9904158385131905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9671635533660248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E9A-4F29-82C7-831DF24CC122}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4094,10 +4283,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30626869315754141"/>
-          <c:y val="0.92518315018315012"/>
-          <c:w val="0.39721967893548188"/>
-          <c:h val="6.0287656350648477E-2"/>
+          <c:x val="0.23540781188619736"/>
+          <c:y val="0.91519806903817491"/>
+          <c:w val="0.45658418667215578"/>
+          <c:h val="7.4816908495524428E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4228,15 +4417,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>807720</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>788671</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4263,625 +4452,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="33">
-          <cell r="B33" t="str">
-            <v xml:space="preserve">1 cm </v>
-          </cell>
-          <cell r="C33" t="str">
-            <v xml:space="preserve">2 cm </v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>3 cm</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v xml:space="preserve">4 cm </v>
-          </cell>
-          <cell r="F33" t="str">
-            <v xml:space="preserve">5 cm </v>
-          </cell>
-          <cell r="G33" t="str">
-            <v xml:space="preserve">6 cm </v>
-          </cell>
-          <cell r="H33" t="str">
-            <v>7 cm</v>
-          </cell>
-          <cell r="I33" t="str">
-            <v xml:space="preserve">8 cm </v>
-          </cell>
-          <cell r="J33" t="str">
-            <v xml:space="preserve">9 cm </v>
-          </cell>
-          <cell r="K33" t="str">
-            <v xml:space="preserve">10 cm </v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>-2</v>
-          </cell>
-          <cell r="B34">
-            <v>1.2201389312139237</v>
-          </cell>
-          <cell r="C34">
-            <v>0.67795558691042324</v>
-          </cell>
-          <cell r="D34">
-            <v>0.40951364433623133</v>
-          </cell>
-          <cell r="E34">
-            <v>0.2850669778488909</v>
-          </cell>
-          <cell r="F34">
-            <v>0.20925482100407347</v>
-          </cell>
-          <cell r="G34">
-            <v>0.17326560793598503</v>
-          </cell>
-          <cell r="H34">
-            <v>0.14143891972218942</v>
-          </cell>
-          <cell r="I34">
-            <v>0.10927541583339959</v>
-          </cell>
-          <cell r="J34">
-            <v>9.4477346842363905E-2</v>
-          </cell>
-          <cell r="K34">
-            <v>8.4683078847678672E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>-1</v>
-          </cell>
-          <cell r="B35">
-            <v>1.2201389312139237</v>
-          </cell>
-          <cell r="C35">
-            <v>0.67795558691042324</v>
-          </cell>
-          <cell r="D35">
-            <v>0.40951364433623133</v>
-          </cell>
-          <cell r="E35">
-            <v>0.2850669778488909</v>
-          </cell>
-          <cell r="F35">
-            <v>0.20925482100407347</v>
-          </cell>
-          <cell r="G35">
-            <v>0.17326560793598503</v>
-          </cell>
-          <cell r="H35">
-            <v>0.14143891972218942</v>
-          </cell>
-          <cell r="I35">
-            <v>0.10927541583339959</v>
-          </cell>
-          <cell r="J35">
-            <v>9.4477346842363905E-2</v>
-          </cell>
-          <cell r="K35">
-            <v>8.4683078847678672E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>0</v>
-          </cell>
-          <cell r="B36">
-            <v>4.0526222779299257</v>
-          </cell>
-          <cell r="C36">
-            <v>2.1954161437851334</v>
-          </cell>
-          <cell r="D36">
-            <v>1.3009114925977638</v>
-          </cell>
-          <cell r="E36">
-            <v>0.86992750338643565</v>
-          </cell>
-          <cell r="F36">
-            <v>0.61277731236498978</v>
-          </cell>
-          <cell r="G36">
-            <v>0.49662615773152102</v>
-          </cell>
-          <cell r="H36">
-            <v>0.40163268642726146</v>
-          </cell>
-          <cell r="I36">
-            <v>0.31150469016772869</v>
-          </cell>
-          <cell r="J36">
-            <v>0.26427534964792421</v>
-          </cell>
-          <cell r="K36">
-            <v>0.22860806044484211</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>1</v>
-          </cell>
-          <cell r="B37">
-            <v>16.309592400672528</v>
-          </cell>
-          <cell r="C37">
-            <v>10.417209318093395</v>
-          </cell>
-          <cell r="D37">
-            <v>6.6135183761194183</v>
-          </cell>
-          <cell r="E37">
-            <v>4.6205821478089977</v>
-          </cell>
-          <cell r="F37">
-            <v>3.4286170954759903</v>
-          </cell>
-          <cell r="G37">
-            <v>2.6803357989345726</v>
-          </cell>
-          <cell r="H37">
-            <v>2.1619888467142538</v>
-          </cell>
-          <cell r="I37">
-            <v>1.7894634703324002</v>
-          </cell>
-          <cell r="J37">
-            <v>1.5132767879388456</v>
-          </cell>
-          <cell r="K37">
-            <v>1.2955517894372903</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2</v>
-          </cell>
-          <cell r="B38">
-            <v>16.308318060491573</v>
-          </cell>
-          <cell r="C38">
-            <v>17.77418271001536</v>
-          </cell>
-          <cell r="D38">
-            <v>12.840364164016963</v>
-          </cell>
-          <cell r="E38">
-            <v>9.7749106986682488</v>
-          </cell>
-          <cell r="F38">
-            <v>7.9066432031619529</v>
-          </cell>
-          <cell r="G38">
-            <v>6.5364704953103629</v>
-          </cell>
-          <cell r="H38">
-            <v>5.5424997465594279</v>
-          </cell>
-          <cell r="I38">
-            <v>4.9472324102762641</v>
-          </cell>
-          <cell r="J38">
-            <v>4.3352965722131103</v>
-          </cell>
-          <cell r="K38">
-            <v>3.8663766526623733</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>3</v>
-          </cell>
-          <cell r="B39">
-            <v>3.9698071528297829</v>
-          </cell>
-          <cell r="C39">
-            <v>17.759134662622635</v>
-          </cell>
-          <cell r="D39">
-            <v>16.678620597266224</v>
-          </cell>
-          <cell r="E39">
-            <v>13.111529639808552</v>
-          </cell>
-          <cell r="F39">
-            <v>10.762350729903368</v>
-          </cell>
-          <cell r="G39">
-            <v>8.9546925295195088</v>
-          </cell>
-          <cell r="H39">
-            <v>7.6418640961625464</v>
-          </cell>
-          <cell r="I39">
-            <v>6.8582671518879383</v>
-          </cell>
-          <cell r="J39">
-            <v>6.0520255112282468</v>
-          </cell>
-          <cell r="K39">
-            <v>5.4190017467700571</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>4</v>
-          </cell>
-          <cell r="B40">
-            <v>0.76580256972635385</v>
-          </cell>
-          <cell r="C40">
-            <v>10.399122718236844</v>
-          </cell>
-          <cell r="D40">
-            <v>16.68662695343896</v>
-          </cell>
-          <cell r="E40">
-            <v>15.491314827425327</v>
-          </cell>
-          <cell r="F40">
-            <v>12.974193141948584</v>
-          </cell>
-          <cell r="G40">
-            <v>10.850541618049196</v>
-          </cell>
-          <cell r="H40">
-            <v>9.2964702935353731</v>
-          </cell>
-          <cell r="I40">
-            <v>8.3551518693720084</v>
-          </cell>
-          <cell r="J40">
-            <v>7.3894832987453123</v>
-          </cell>
-          <cell r="K40">
-            <v>6.6334777095138664</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>5</v>
-          </cell>
-          <cell r="B41" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="C41">
-            <v>1.9941757181511244</v>
-          </cell>
-          <cell r="D41">
-            <v>12.862375540655368</v>
-          </cell>
-          <cell r="E41">
-            <v>15.496972465098079</v>
-          </cell>
-          <cell r="F41">
-            <v>14.673926658460351</v>
-          </cell>
-          <cell r="G41">
-            <v>12.417964231909231</v>
-          </cell>
-          <cell r="H41">
-            <v>10.688088176520548</v>
-          </cell>
-          <cell r="I41">
-            <v>9.6247445230203521</v>
-          </cell>
-          <cell r="J41">
-            <v>8.5286641113302064</v>
-          </cell>
-          <cell r="K41">
-            <v>7.65613546159019</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>6</v>
-          </cell>
-          <cell r="B42" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="C42" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="D42">
-            <v>6.6199307285103197</v>
-          </cell>
-          <cell r="E42">
-            <v>13.096059229419112</v>
-          </cell>
-          <cell r="F42">
-            <v>14.666625252630062</v>
-          </cell>
-          <cell r="G42">
-            <v>13.657981831306655</v>
-          </cell>
-          <cell r="H42">
-            <v>11.878336799339765</v>
-          </cell>
-          <cell r="I42">
-            <v>10.728880849666393</v>
-          </cell>
-          <cell r="J42">
-            <v>9.5277043149035094</v>
-          </cell>
-          <cell r="K42">
-            <v>8.5543365656820924</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>7</v>
-          </cell>
-          <cell r="B43" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="C43" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="D43">
-            <v>1.0545466720787506</v>
-          </cell>
-          <cell r="E43">
-            <v>9.7509475645298593</v>
-          </cell>
-          <cell r="F43">
-            <v>12.97010653647753</v>
-          </cell>
-          <cell r="G43">
-            <v>13.655326117532663</v>
-          </cell>
-          <cell r="H43">
-            <v>12.834858610493452</v>
-          </cell>
-          <cell r="I43">
-            <v>11.694891719783969</v>
-          </cell>
-          <cell r="J43">
-            <v>10.41597759755409</v>
-          </cell>
-          <cell r="K43">
-            <v>9.354224507914898</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>8</v>
-          </cell>
-          <cell r="B44" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="C44" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="D44" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E44">
-            <v>4.5695542151814044</v>
-          </cell>
-          <cell r="F44">
-            <v>10.770391344675236</v>
-          </cell>
-          <cell r="G44">
-            <v>12.412363440725336</v>
-          </cell>
-          <cell r="H44">
-            <v>12.835450102361198</v>
-          </cell>
-          <cell r="I44">
-            <v>12.49865223316057</v>
-          </cell>
-          <cell r="J44">
-            <v>11.206611289845293</v>
-          </cell>
-          <cell r="K44">
-            <v>10.086662353787062</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>9</v>
-          </cell>
-          <cell r="B45" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="C45" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="D45" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E45">
-            <v>0.42508045116504817</v>
-          </cell>
-          <cell r="F45">
-            <v>7.9289584961969011</v>
-          </cell>
-          <cell r="G45">
-            <v>10.842062211845143</v>
-          </cell>
-          <cell r="H45">
-            <v>11.876311077706923</v>
-          </cell>
-          <cell r="I45">
-            <v>12.501853570169482</v>
-          </cell>
-          <cell r="J45">
-            <v>11.861785845251587</v>
-          </cell>
-          <cell r="K45">
-            <v>10.745304184196016</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>10</v>
-          </cell>
-          <cell r="B46" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="C46" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="D46" t="e">
-            <v>#NUM!</v>
-          </cell>
-          <cell r="E46">
-            <v>0.42508045116504817</v>
-          </cell>
-          <cell r="F46">
-            <v>7.9289584961969011</v>
-          </cell>
-          <cell r="G46">
-            <v>10.842062211845143</v>
-          </cell>
-          <cell r="H46">
-            <v>11.876311077706923</v>
-          </cell>
-          <cell r="I46">
-            <v>12.501853570169482</v>
-          </cell>
-          <cell r="J46">
-            <v>11.861785845251587</v>
-          </cell>
-          <cell r="K46">
-            <v>10.745304184196016</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>Velocity [m/s]</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Energy [J]</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v xml:space="preserve">1 cm </v>
-          </cell>
-          <cell r="B59">
-            <v>16.309592400672528</v>
-          </cell>
-          <cell r="C59">
-            <v>0.68027915099734881</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v xml:space="preserve">2 cm </v>
-          </cell>
-          <cell r="B60">
-            <v>17.77418271001536</v>
-          </cell>
-          <cell r="C60">
-            <v>1.6158841534971533</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>3 cm</v>
-          </cell>
-          <cell r="B61">
-            <v>16.68662695343896</v>
-          </cell>
-          <cell r="C61">
-            <v>2.1362856073434378</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v xml:space="preserve">4 cm </v>
-          </cell>
-          <cell r="B62">
-            <v>15.496972465098079</v>
-          </cell>
-          <cell r="C62">
-            <v>2.4567143353559051</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v xml:space="preserve">5 cm </v>
-          </cell>
-          <cell r="B63">
-            <v>14.673926658460351</v>
-          </cell>
-          <cell r="C63">
-            <v>2.7533640552295995</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v xml:space="preserve">6 cm </v>
-          </cell>
-          <cell r="B64">
-            <v>13.657981831306655</v>
-          </cell>
-          <cell r="C64">
-            <v>2.8623666132066798</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>7 cm</v>
-          </cell>
-          <cell r="B65">
-            <v>12.835450102361198</v>
-          </cell>
-          <cell r="C65">
-            <v>2.949315215865068</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v xml:space="preserve">8 cm </v>
-          </cell>
-          <cell r="B66">
-            <v>12.501853570169482</v>
-          </cell>
-          <cell r="C66">
-            <v>3.1977149593886267</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v xml:space="preserve">9 cm </v>
-          </cell>
-          <cell r="B67">
-            <v>11.861785845251587</v>
-          </cell>
-          <cell r="C67">
-            <v>3.2384978512897011</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v xml:space="preserve">10 cm </v>
-          </cell>
-          <cell r="B68">
-            <v>10.745304184196016</v>
-          </cell>
-          <cell r="C68">
-            <v>2.9528295234091897</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5207,17 +4777,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5249,7 +4819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -5281,7 +4851,7 @@
         <v>0.28143801931541412</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -5313,7 +4883,7 @@
         <v>1.5502139648687101</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5345,7 +4915,7 @@
         <v>19.197983168492339</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5377,7 +4947,7 @@
         <v>100.38105531001131</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5409,7 +4979,7 @@
         <v>154.22360602235329</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5441,7 +5011,7 @@
         <v>136.8622557282736</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5473,7 +5043,7 @@
         <v>1.4200685440680401</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5505,7 +5075,7 @@
         <v>-137.54885784140461</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5537,7 +5107,7 @@
         <v>-154.4177076142827</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5569,7 +5139,7 @@
         <v>-100.44943478842821</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5601,7 +5171,7 @@
         <v>-19.204658492339892</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
@@ -5618,36 +5188,36 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -5658,7 +5228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>-2</v>
       </c>
@@ -5699,7 +5269,7 @@
         <v>2.8143801931541411E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>-1</v>
       </c>
@@ -5740,7 +5310,7 @@
         <v>2.8143801931541411E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5781,7 +5351,7 @@
         <v>1.8316519841841242E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5822,7 +5392,7 @@
         <v>0.21029635152676462</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5863,7 +5433,7 @@
         <v>1.2141069046268778</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5904,7 +5474,7 @@
         <v>2.7563429648504107</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5945,7 +5515,7 @@
         <v>4.1249655221331469</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>5</v>
       </c>
@@ -5986,7 +5556,7 @@
         <v>4.1391662075738269</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>6</v>
       </c>
@@ -6027,7 +5597,7 @@
         <v>2.7636776291597811</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>7</v>
       </c>
@@ -6068,7 +5638,7 @@
         <v>1.2195005530169543</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>8</v>
       </c>
@@ -6109,7 +5679,7 @@
         <v>0.21500620513267207</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>9</v>
       </c>
@@ -6150,7 +5720,7 @@
         <v>2.2959620209273161E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10</v>
       </c>
@@ -6191,7 +5761,7 @@
         <v>2.2959620209273161E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
         <v>24</v>
       </c>
@@ -6205,7 +5775,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -6238,7 +5808,7 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -6279,7 +5849,7 @@
         <v>0.23603338133539356</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -6320,7 +5890,7 @@
         <v>0.23603338133539356</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0</v>
       </c>
@@ -6361,7 +5931,7 @@
         <v>0.60214838450735819</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -6402,7 +5972,7 @@
         <v>2.0403182499357242</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2</v>
       </c>
@@ -6443,7 +6013,7 @@
         <v>4.9024199351026096</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -6484,7 +6054,7 @@
         <v>7.3866695785143675</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>4</v>
       </c>
@@ -6525,7 +6095,7 @@
         <v>9.036332579305947</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>5</v>
       </c>
@@ -6566,7 +6136,7 @@
         <v>9.0518735413404592</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>6</v>
       </c>
@@ -6607,7 +6177,7 @@
         <v>7.3964910607655066</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>7</v>
       </c>
@@ -6648,7 +6218,7 @@
         <v>4.9132973246429072</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>8</v>
       </c>
@@ -6689,7 +6259,7 @@
         <v>2.06303949452544</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>9</v>
       </c>
@@ -6730,7 +6300,7 @@
         <v>0.67416219520357179</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>10</v>
       </c>
@@ -6771,7 +6341,7 @@
         <v>0.67416219520357179</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -6812,7 +6382,7 @@
         <v>9.0518735413404592</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -6853,15 +6423,15 @@
         <v>4.1391662075738278</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C52">
         <v>8040</v>
       </c>
@@ -6869,9 +6439,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -6901,7 +6471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -6942,18 +6512,24 @@
         <v>0.10103361801600001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>30</v>
+      <c r="D58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -6963,8 +6539,14 @@
       <c r="C59">
         <v>0.81342092783617692</v>
       </c>
+      <c r="D59" s="5">
+        <v>18.27649034911887</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.67496538953707597</v>
+      </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
@@ -6974,10 +6556,16 @@
       <c r="C60">
         <v>1.5093633775483901</v>
       </c>
+      <c r="D60" s="5">
+        <v>17.299247030152319</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1.3606073725058698</v>
+      </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B61">
         <v>16.411762180064972</v>
@@ -6985,8 +6573,14 @@
       <c r="C61">
         <v>2.177039567952356</v>
       </c>
+      <c r="D61" s="5">
+        <v>15.239520587721854</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1.8771479448465018</v>
+      </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
@@ -6996,8 +6590,14 @@
       <c r="C62">
         <v>2.7162648055469285</v>
       </c>
+      <c r="D62" s="5">
+        <v>14.411147481984226</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2.6228475219315301</v>
+      </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -7007,8 +6607,14 @@
       <c r="C63">
         <v>3.3172765846013896</v>
       </c>
+      <c r="D63" s="5">
+        <v>12.987120306753289</v>
+      </c>
+      <c r="E63" s="5">
+        <v>3.0673556770712671</v>
+      </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
@@ -7018,8 +6624,14 @@
       <c r="C64">
         <v>3.6842594284545847</v>
       </c>
+      <c r="D64" s="5">
+        <v>11.732507285191129</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3.4073257460933211</v>
+      </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
@@ -7029,8 +6641,14 @@
       <c r="C65">
         <v>3.9069720407886157</v>
       </c>
+      <c r="D65" s="5">
+        <v>10.457294320270323</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3.5355301609176126</v>
+      </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>19</v>
       </c>
@@ -7040,8 +6658,14 @@
       <c r="C66">
         <v>3.9313637004414619</v>
       </c>
+      <c r="D66" s="5">
+        <v>9.8752617000098226</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3.9904158385131905</v>
+      </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
@@ -7051,8 +6675,14 @@
       <c r="C67">
         <v>4.1391662075738278</v>
       </c>
+      <c r="D67" s="5">
+        <v>8.8618031330527405</v>
+      </c>
+      <c r="E67" s="5">
+        <v>3.9671635533660248</v>
+      </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
     </row>
   </sheetData>
@@ -7074,15 +6704,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7090,13 +6720,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7111,7 +6741,7 @@
         <v>3.1788412410239074E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7126,7 +6756,7 @@
         <v>2.6675607433727873E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7141,7 +6771,7 @@
         <v>2.3207839294866092E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7156,7 +6786,7 @@
         <v>2.2297221467842493E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7171,7 +6801,7 @@
         <v>2.0334656926036086E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7186,7 +6816,7 @@
         <v>1.9713386088206783E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7201,7 +6831,7 @@
         <v>1.9186141300094853E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7216,7 +6846,7 @@
         <v>1.8725872245109506E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
